--- a/Game_Data/Statistics/Statistics.xlsx
+++ b/Game_Data/Statistics/Statistics.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Minimax-Minimax Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Minimax-Minimax Statistics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Random-Random Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Random-Random Statistics" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Random-Minimax Data" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Random-Minimax Statistics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Random-Random Data" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Random-Random Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Minimax-Minimax Data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Minimax-Minimax Statistics" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,9 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="19.2" customWidth="1" min="2" max="2"/>
-    <col width="19.2" customWidth="1" min="3" max="3"/>
-    <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,17 +455,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Minimax(White)</t>
+          <t>Random(White)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Minimax(Balck)</t>
+          <t>Random(Balck)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Moves</t>
         </is>
       </c>
     </row>
@@ -475,16 +475,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>276</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>39</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -529,16 +529,16 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>47</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>34</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +565,16 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>51</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +601,16 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>54</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
@@ -637,16 +637,16 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>484</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>160</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13">
@@ -673,16 +673,16 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>166</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>200</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -727,16 +727,16 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>42</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17">
@@ -745,16 +745,16 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -763,16 +763,16 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>36</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19">
@@ -781,16 +781,16 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>50</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -835,16 +835,16 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>63</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>112</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -907,16 +907,16 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -925,16 +925,16 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>40</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -961,16 +961,16 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1015,16 +1015,16 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>174</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>351</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>496</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
@@ -1105,16 +1105,16 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>41</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>600</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>122</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40">
@@ -1159,16 +1159,16 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>40</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>184</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -1249,16 +1249,16 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -1285,16 +1285,16 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
@@ -1357,16 +1357,16 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>29</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>71</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>122</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
@@ -1411,16 +1411,16 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>51</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>37</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56">
@@ -1447,16 +1447,16 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>40</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>118</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -1501,16 +1501,16 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>113</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>440</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62">
@@ -1555,16 +1555,16 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>51</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64">
@@ -1591,16 +1591,16 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>405</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>71</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67">
@@ -1645,16 +1645,16 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>56</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71">
@@ -1717,16 +1717,16 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>378</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75">
@@ -1789,16 +1789,16 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>56</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76">
@@ -1807,16 +1807,16 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
@@ -1825,16 +1825,16 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>41</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79">
@@ -1861,16 +1861,16 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>22</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>127</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
@@ -1933,16 +1933,16 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
@@ -1951,16 +1951,16 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
@@ -1969,16 +1969,16 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>53</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>36</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89">
@@ -2041,16 +2041,16 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -2095,16 +2095,16 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>43</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93">
@@ -2113,16 +2113,16 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>72</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
@@ -2131,16 +2131,16 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -2149,16 +2149,16 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>48</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97">
@@ -2185,16 +2185,16 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>54</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
@@ -2239,16 +2239,16 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
@@ -2275,16 +2275,556 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>142</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2306,8 +2846,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="25.2" customWidth="1" min="4" max="4"/>
     <col width="26.4" customWidth="1" min="5" max="5"/>
@@ -2345,53 +2885,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Minimax(White)</t>
+          <t>Random(White)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>27.72%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>87.02%</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Minimax(Balck)</t>
+          <t>Random(Balck)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>25.74%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>46.53%</t>
+          <t>87.02%</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>484</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2956,7 @@
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="19.2" customWidth="1" min="3" max="3"/>
-    <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2437,7 +2977,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Moves</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4380,9 +4920,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
+    <col width="19.2" customWidth="1" min="2" max="2"/>
+    <col width="19.2" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4393,17 +4933,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Random(White)</t>
+          <t>Minimax(White)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Random(Balck)</t>
+          <t>Minimax(Balck)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Moves</t>
         </is>
       </c>
     </row>
@@ -4413,16 +4953,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -4431,16 +4971,16 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -4449,16 +4989,16 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>331</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -4467,16 +5007,16 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>238</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -4485,16 +5025,16 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -4503,16 +5043,16 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -4521,16 +5061,16 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>213</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -4539,16 +5079,16 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -4566,7 +5106,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>301</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -4575,16 +5115,16 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>232</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
@@ -4602,7 +5142,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>265</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -4611,16 +5151,16 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -4638,7 +5178,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>137</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -4647,16 +5187,16 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -4665,16 +5205,16 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>322</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -4683,16 +5223,16 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +5241,16 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>261</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -4719,16 +5259,16 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -4746,7 +5286,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>351</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -4764,7 +5304,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>193</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -4773,16 +5313,16 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>235</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -4800,7 +5340,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>202</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -4818,7 +5358,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>306</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -4836,7 +5376,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4845,16 +5385,16 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -4863,16 +5403,16 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4890,7 +5430,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -4899,16 +5439,16 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -4926,7 +5466,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -4944,7 +5484,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32">
@@ -4953,16 +5493,16 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -4980,7 +5520,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>109</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -4998,7 +5538,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>192</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35">
@@ -5016,7 +5556,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36">
@@ -5034,7 +5574,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -5043,16 +5583,16 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>234</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -5061,16 +5601,16 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>23</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39">
@@ -5088,7 +5628,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>260</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -5097,16 +5637,16 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -5124,7 +5664,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -5142,7 +5682,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>176</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -5160,7 +5700,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -5178,7 +5718,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -5187,16 +5727,16 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -5205,16 +5745,16 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -5223,16 +5763,16 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -5241,16 +5781,16 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>177</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -5268,7 +5808,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
@@ -5286,7 +5826,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>156</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -5295,16 +5835,16 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>297</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -5322,7 +5862,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -5340,7 +5880,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>424</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -5349,16 +5889,16 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>349</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -5376,7 +5916,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>362</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
@@ -5385,16 +5925,16 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -5412,7 +5952,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>216</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
@@ -5430,7 +5970,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59">
@@ -5439,16 +5979,16 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>297</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
@@ -5466,7 +6006,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>218</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61">
@@ -5484,7 +6024,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>162</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
@@ -5493,16 +6033,16 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>469</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -5520,7 +6060,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64">
@@ -5529,16 +6069,16 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
@@ -5556,7 +6096,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>180</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66">
@@ -5574,7 +6114,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>185</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67">
@@ -5583,16 +6123,16 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
@@ -5610,7 +6150,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>276</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69">
@@ -5628,7 +6168,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70">
@@ -5646,7 +6186,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -5655,16 +6195,16 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -5682,7 +6222,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -5700,7 +6240,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -5718,7 +6258,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75">
@@ -5727,16 +6267,16 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>389</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76">
@@ -5745,16 +6285,16 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>159</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77">
@@ -5763,16 +6303,16 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>328</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
@@ -5781,16 +6321,16 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>281</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79">
@@ -5799,16 +6339,16 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>280</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -5826,7 +6366,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>222</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
@@ -5844,7 +6384,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
@@ -5862,7 +6402,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -5871,16 +6411,16 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
@@ -5889,16 +6429,16 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
@@ -5907,16 +6447,16 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86">
@@ -5925,16 +6465,16 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>211</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -5952,7 +6492,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
@@ -5961,16 +6501,16 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -5979,16 +6519,16 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>240</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
@@ -6006,7 +6546,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -6024,7 +6564,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -6033,16 +6573,16 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>258</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
@@ -6051,16 +6591,16 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>157</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
@@ -6069,16 +6609,16 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -6087,16 +6627,16 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>179</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
@@ -6114,7 +6654,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>194</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
@@ -6123,16 +6663,16 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>196</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -6150,7 +6690,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>348</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -6168,7 +6708,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
@@ -6177,16 +6717,16 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
@@ -6204,7 +6744,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -6213,556 +6753,16 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6784,8 +6784,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="19.2" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="25.2" customWidth="1" min="4" max="4"/>
     <col width="26.4" customWidth="1" min="5" max="5"/>
@@ -6823,53 +6823,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Random(White)</t>
+          <t>Minimax(White)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>27.72%</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>87.02%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Random(Balck)</t>
+          <t>Minimax(Balck)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>25.74%</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>87.02%</t>
+          <t>46.53%</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Game_Data/Statistics/Statistics.xlsx
+++ b/Game_Data/Statistics/Statistics.xlsx
@@ -7,12 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Random-Random Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Random-Random Statistics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Random-Minimax Data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Random-Minimax Statistics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Minimax-Minimax Data" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Minimax-Minimax Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Human-Random Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Human-Random Statistics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Human-Minimax Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Human-Minimax Statistics" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Random-Random Data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Random-Random Statistics" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Random-Minimax Data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Random-Minimax Statistics" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Minimax-Minimax Data" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Minimax-Minimax Statistics" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +437,463 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Random(Balck)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Moves</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.2" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="3" max="3"/>
+    <col width="25.2" customWidth="1" min="4" max="4"/>
+    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="25.2" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to win | Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Minimax(White)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>27.72%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>46.53%</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Minimax(Balck)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>25.74%</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>46.53%</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>484</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="25.2" customWidth="1" min="4" max="4"/>
+    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="25.2" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to win | Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Random(Balck)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" min="2" max="2"/>
+    <col width="19.2" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Minimax(Balck)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Moves</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.2" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="25.2" customWidth="1" min="4" max="4"/>
+    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="25.2" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to win | Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Minimax(Balck)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2939,13 +3400,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4799,12 +5260,138 @@
         <v>17</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4867,7 +5454,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>15.84%</t>
+          <t>15.74%</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
@@ -4882,12 +5469,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>84.16%</t>
+          <t>84.26%</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>15.84%</t>
+          <t>15.74%</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -4905,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6768,111 +7355,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to Win | Max</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to win | Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to Win | Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Minimax(White)</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>27.72%</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>46.53%</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Minimax(Balck)</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>25.74%</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>46.53%</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>484</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Game_Data/Statistics/Statistics.xlsx
+++ b/Game_Data/Statistics/Statistics.xlsx
@@ -13,10 +13,12 @@
     <sheet name="Random-Minimax Statistics" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Minimax-Minimax Data" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Minimax-Minimax Statistics" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Human-Random Data" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Human-Random Statistics" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Human-Minimax Data" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Human-Minimax Statistics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="BaseAI vs AdvancedAI Data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="BaseAI vs AdvancedAI Statistics" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Human-Random Data" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Human-Random Statistics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Human-Minimax Data" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Human-Minimax Statistics" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2842,7 +2844,707 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total match</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t># Win</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to win | Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Random(Balck)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" min="2" max="2"/>
+    <col width="19.2" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Human(White)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Minimax(Balck)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Moves</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,36 +3553,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Total match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t># Win</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>#Moves to Win | Max</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>#Moves to win | Mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>#Moves to Win | Min</t>
         </is>
@@ -2894,17 +3614,38 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3.57%</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2914,21 +3655,36 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="n">
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>89.29%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2943,7 +3699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,36 +3708,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="8.4" customWidth="1" min="2" max="2"/>
-    <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Total match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t># Win</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>#Moves to Win | Max</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>#Moves to win | Mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>#Moves to Win | Min</t>
         </is>
@@ -2995,21 +3769,36 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>6.87%</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>87.02%</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3021,21 +3810,36 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>6.11%</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>87.02%</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3050,7 +3854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5120,6 +5924,42 @@
         <v>23</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5131,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5140,36 +5980,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Total match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t># Win</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>#Moves to Win | Max</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>#Moves to win | Mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>#Moves to Win | Min</t>
         </is>
@@ -5183,17 +6041,32 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>16.81%</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>16.52%</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5203,21 +6076,36 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>83.19%</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>16.81%</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>83.48%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>16.52%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5232,7 +6120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7086,78 +7974,6 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7169,7 +7985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7178,36 +7994,54 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Total match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t># Win</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>#Moves to Win | Max</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>#Moves to win | Mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>#Moves to Win | Min</t>
         </is>
@@ -7221,21 +8055,36 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>45.71%</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>27.72%</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>46.53%</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="H2" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>26</v>
       </c>
     </row>
@@ -7247,21 +8096,36 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>45.71%</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>25.74%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>46.53%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>484</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="H3" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7271,6 +8135,2008 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="22.8" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BaseAI(White)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AdvancedAI(Balck)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Moves</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.8" customWidth="1" min="1" max="1"/>
+    <col width="15.6" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="25.2" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="25.2" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total match</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t># Win</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% Win</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># Draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>% Draw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to win | Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>#Moves to Win | Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BaseAI(White)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>46.0%</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AdvancedAI(Balck)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>44.0%</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>46.0%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7351,260 +10217,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
-    <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="25.2" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to Win | Max</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to win | Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>#Moves to Win | Min</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Human(White)</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Random(Balck)</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="16.8" customWidth="1" min="2" max="2"/>
-    <col width="19.2" customWidth="1" min="3" max="3"/>
-    <col width="8.4" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Human(White)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Minimax(Balck)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Moves</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>